--- a/public/record/ToCustomer_PDFForm.xlsx
+++ b/public/record/ToCustomer_PDFForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\Desktop\Daily Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EFD82F-A468-49FD-9051-1A85ECB0169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614E311-7F3D-4ADC-BCA7-475FFFF3AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
   </bookViews>
@@ -816,9 +816,123 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,120 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,9 +1114,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>31060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1476375" cy="428625"/>
     <xdr:pic>
@@ -1149,7 +1149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3286125" y="114300"/>
+          <a:off x="3393799" y="114299"/>
           <a:ext cx="1476375" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1467,107 +1467,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40">
+      <c r="E2" s="77"/>
+      <c r="F2" s="78">
         <v>44781</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="81"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1575,94 +1575,94 @@
       <c r="B7" s="12"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="10"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,14 +1672,14 @@
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="65" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1688,10 +1688,10 @@
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="19"/>
       <c r="H18" s="2"/>
     </row>
@@ -1708,62 +1708,62 @@
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1785,11 +1785,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:G25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="A21:G21"/>
@@ -1806,19 +1814,11 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.57999999999999996" bottom="0.45" header="0.56999999999999995" footer="0.3"/>

--- a/public/record/ToCustomer_PDFForm.xlsx
+++ b/public/record/ToCustomer_PDFForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\Desktop\Daily Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614E311-7F3D-4ADC-BCA7-475FFFF3AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E8A180-6DA3-43EA-AD28-0141D798763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -774,12 +781,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -816,6 +817,117 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -861,124 +973,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1113,10 +1120,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31060</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>345799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>97734</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1476375" cy="428625"/>
     <xdr:pic>
@@ -1149,7 +1156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3393799" y="114299"/>
+          <a:off x="3443495" y="97734"/>
           <a:ext cx="1476375" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1462,207 +1469,207 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78">
+      <c r="E2" s="84"/>
+      <c r="F2" s="36">
         <v>44781</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="80" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="39"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,98 +1679,98 @@
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1785,19 +1792,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="A21:G21"/>
@@ -1814,11 +1813,19 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:G25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.57999999999999996" bottom="0.45" header="0.56999999999999995" footer="0.3"/>
